--- a/pizzaInfo.xlsx
+++ b/pizzaInfo.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2206_2207\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EBB534-6313-4D9C-AD95-49226AE94DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>메뉴</t>
-  </si>
-  <si>
-    <t>개수</t>
-  </si>
-  <si>
-    <t>가격</t>
-  </si>
-  <si>
-    <t>스타 셰프 시그니처</t>
-  </si>
-  <si>
-    <t>글로벌 레전드4</t>
-  </si>
-  <si>
-    <t>직화 스테이크</t>
-  </si>
-  <si>
-    <t>2020-11-29</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,49 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,147 +421,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="21.59765625" style="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>메뉴</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>개수</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>가격</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>피자</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>스타 셰프 시그니처</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>44163</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>스타 셰프 시그니처</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>44165</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>44166</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>44167</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>44164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <v>44168</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>33900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>33900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>33900</v>
+      <c r="D4" t="n">
+        <v>31900</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pizzaInfo.xlsx
+++ b/pizzaInfo.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,68 +435,314 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>메뉴</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>메뉴</t>
+          <t>개수</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>개수</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>가격</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>직화 스테이크</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>글로벌 레전드4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>글로벌 레전드4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>139600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>30 치즈&amp;뉴욕 스트립 스테이크</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>글로벌 레전드4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>83800</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>베이컨체더치즈</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>시리얼 칠리크랩</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>글로벌 레전드4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>우리고구마</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>우리고구마</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>스타 셰프 시그니처</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>194500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>스타 셰프 시그니처</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>110700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>스타 셰프 시그니처</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>베이컨체더치즈</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>110700</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>글로벌 레전드4</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>107700</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>피자</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>스타 셰프 시그니처</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>시리얼 칠리크랩</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>스타 셰프 시그니처</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31900</v>
+      <c r="C21" t="n">
+        <v>69800</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>36900</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>38900</t>
+        </is>
       </c>
     </row>
   </sheetData>
